--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/william/code/python/pymcn/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012C9D9F-82B5-2246-B59C-3D0436346480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D289A-F21C-F84F-9590-3B46B029B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>project_id</t>
   </si>
   <si>
-    <t>resource_id</t>
-  </si>
-  <si>
     <t>vpc-01-npe</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>project-b</t>
+  </si>
+  <si>
+    <t>network_id</t>
+  </si>
+  <si>
+    <t>route_table_id</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,9 +491,10 @@
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,121 +517,124 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
